--- a/PhanMem/Data/May-TongHop.xlsx
+++ b/PhanMem/Data/May-TongHop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>TỔNG HỢP SẢN PHẨM MAY</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
@@ -92,16 +95,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -420,9 +426,10 @@
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -434,17 +441,17 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +476,11 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -479,6 +489,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
